--- a/01.MODELO PERSEPOLIS/02.Ejecucion/02.Frente Operacion/Entregables Especialistas/Seguridad/SIPOC - Seguridadv8.xlsx
+++ b/01.MODELO PERSEPOLIS/02.Ejecucion/02.Frente Operacion/Entregables Especialistas/Seguridad/SIPOC - Seguridadv8.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OYG\CONCEPTUALIZACIÓN\especialistaseguridad\documentos finales\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Harry Wong\Dropbox\privada\Persepolis\01.MODELO PERSEPOLIS\02.Ejecucion\02.Frente Operacion\Entregables Especialistas\Seguridad\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1375,7 +1375,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1409,6 +1409,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1490,7 +1496,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1523,7 +1529,6 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1533,20 +1538,20 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1572,14 +1577,40 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1892,11 +1923,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:T91"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="H74" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <pane xSplit="1" ySplit="4" topLeftCell="J5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="R76" sqref="R76"/>
+      <selection pane="bottomRight" activeCell="T5" sqref="T5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -1913,50 +1944,50 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:20" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="22"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="21"/>
     </row>
     <row r="3" spans="1:20" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="26" t="s">
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="J3" s="27"/>
-      <c r="K3" s="27"/>
-      <c r="L3" s="27"/>
-      <c r="M3" s="28"/>
-      <c r="N3" s="23"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="24"/>
-      <c r="R3" s="25"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="27"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="23"/>
+      <c r="P3" s="23"/>
+      <c r="Q3" s="23"/>
+      <c r="R3" s="24"/>
     </row>
     <row r="4" spans="1:20" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
@@ -2017,318 +2048,318 @@
         <v>229</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="19"/>
+    <row r="5" spans="1:20" s="33" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="28"/>
       <c r="B5" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="17" t="s">
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="J5" s="15" t="s">
+      <c r="J5" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="K5" s="17" t="s">
+      <c r="K5" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="15" t="s">
+      <c r="L5" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="M5" s="17" t="s">
+      <c r="M5" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="N5" s="17" t="s">
+      <c r="N5" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="O5" s="15" t="s">
+      <c r="O5" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="P5" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="Q5" s="17" t="s">
+      <c r="Q5" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="R5" s="7"/>
-      <c r="T5" s="12" t="s">
+      <c r="R5" s="32"/>
+      <c r="T5" s="34" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="19"/>
+    <row r="6" spans="1:20" s="33" customFormat="1" ht="28.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="28"/>
       <c r="B6" s="18"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="17"/>
-      <c r="N6" s="17"/>
-      <c r="O6" s="15"/>
-      <c r="P6" s="7" t="s">
+      <c r="C6" s="30"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="30"/>
+      <c r="O6" s="31"/>
+      <c r="P6" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="Q6" s="17"/>
-      <c r="R6" s="7"/>
-      <c r="T6" s="13" t="s">
+      <c r="Q6" s="30"/>
+      <c r="R6" s="32"/>
+      <c r="T6" s="35" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="19"/>
+    <row r="7" spans="1:20" s="33" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="28"/>
       <c r="B7" s="18"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="17"/>
-      <c r="N7" s="17"/>
-      <c r="O7" s="15"/>
-      <c r="P7" s="7" t="s">
+      <c r="C7" s="30"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="31"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="31"/>
+      <c r="M7" s="30"/>
+      <c r="N7" s="30"/>
+      <c r="O7" s="31"/>
+      <c r="P7" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="Q7" s="17"/>
-      <c r="R7" s="7"/>
-      <c r="T7" s="12" t="s">
+      <c r="Q7" s="30"/>
+      <c r="R7" s="32"/>
+      <c r="T7" s="34" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="19"/>
+    <row r="8" spans="1:20" s="33" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="28"/>
       <c r="B8" s="18"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="17"/>
-      <c r="O8" s="15"/>
-      <c r="P8" s="7" t="s">
+      <c r="C8" s="30"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="31"/>
+      <c r="M8" s="30"/>
+      <c r="N8" s="30"/>
+      <c r="O8" s="31"/>
+      <c r="P8" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="Q8" s="7" t="s">
+      <c r="Q8" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="R8" s="7"/>
-      <c r="T8" s="12" t="s">
+      <c r="R8" s="32"/>
+      <c r="T8" s="34" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="85.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="19"/>
+    <row r="9" spans="1:20" s="33" customFormat="1" ht="85.5" x14ac:dyDescent="0.3">
+      <c r="A9" s="28"/>
       <c r="B9" s="18"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="7" t="s">
+      <c r="C9" s="30"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="L9" s="7" t="s">
+      <c r="L9" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="M9" s="7" t="s">
+      <c r="M9" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="N9" s="7" t="s">
+      <c r="N9" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="O9" s="8" t="s">
+      <c r="O9" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="P9" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="Q9" s="7" t="s">
+      <c r="Q9" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="R9" s="7"/>
-      <c r="T9" s="12" t="s">
+      <c r="R9" s="32"/>
+      <c r="T9" s="34" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="57" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="19"/>
+    <row r="10" spans="1:20" s="33" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="28"/>
       <c r="B10" s="18"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="7" t="s">
+      <c r="C10" s="30"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="L10" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="M10" s="7" t="s">
+      <c r="M10" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="N10" s="7" t="s">
+      <c r="N10" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="O10" s="7" t="s">
+      <c r="O10" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="P10" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="Q10" s="7" t="s">
+      <c r="Q10" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="R10" s="7"/>
-      <c r="T10" s="13" t="s">
+      <c r="R10" s="32"/>
+      <c r="T10" s="35" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="57" x14ac:dyDescent="0.3">
-      <c r="A11" s="19"/>
+    <row r="11" spans="1:20" s="33" customFormat="1" ht="57" x14ac:dyDescent="0.3">
+      <c r="A11" s="28"/>
       <c r="B11" s="18"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="7" t="s">
+      <c r="C11" s="30"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="L11" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="M11" s="7" t="s">
+      <c r="M11" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="N11" s="7" t="s">
+      <c r="N11" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="O11" s="7" t="s">
+      <c r="O11" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="P11" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="Q11" s="7" t="s">
+      <c r="Q11" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="R11" s="7"/>
-      <c r="T11" s="13" t="s">
+      <c r="R11" s="32"/>
+      <c r="T11" s="35" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="57" x14ac:dyDescent="0.3">
-      <c r="A12" s="19"/>
+    <row r="12" spans="1:20" s="33" customFormat="1" ht="57" x14ac:dyDescent="0.3">
+      <c r="A12" s="28"/>
       <c r="B12" s="18"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="8" t="s">
+      <c r="C12" s="30"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="L12" s="7" t="s">
+      <c r="L12" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="M12" s="7" t="s">
+      <c r="M12" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="N12" s="8" t="s">
+      <c r="N12" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="O12" s="7" t="s">
+      <c r="O12" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="P12" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="Q12" s="7" t="s">
+      <c r="Q12" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="R12" s="7"/>
-      <c r="T12" s="13" t="s">
+      <c r="R12" s="32"/>
+      <c r="T12" s="35" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="13" spans="1:20" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="19"/>
+      <c r="A13" s="28"/>
       <c r="B13" s="18"/>
       <c r="C13" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="D13" s="20" t="s">
+      <c r="D13" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="E13" s="15" t="s">
+      <c r="E13" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="F13" s="15" t="s">
+      <c r="F13" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="G13" s="15" t="s">
+      <c r="G13" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="H13" s="15" t="s">
+      <c r="H13" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="I13" s="15" t="s">
+      <c r="I13" s="14" t="s">
         <v>194</v>
       </c>
-      <c r="J13" s="15" t="s">
+      <c r="J13" s="14" t="s">
         <v>199</v>
       </c>
-      <c r="K13" s="15" t="s">
+      <c r="K13" s="14" t="s">
         <v>190</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="M13" s="15" t="s">
+      <c r="M13" s="14" t="s">
         <v>192</v>
       </c>
-      <c r="N13" s="17" t="s">
+      <c r="N13" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="O13" s="17" t="s">
+      <c r="O13" s="19" t="s">
         <v>59</v>
       </c>
       <c r="P13" s="7" t="s">
@@ -2340,28 +2371,28 @@
       <c r="R13" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="T13" s="13" t="s">
+      <c r="T13" s="12" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="14" spans="1:20" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="19"/>
+      <c r="A14" s="28"/>
       <c r="B14" s="18"/>
       <c r="C14" s="18"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="15"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
       <c r="L14" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="M14" s="15"/>
-      <c r="N14" s="17"/>
-      <c r="O14" s="17"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="19"/>
+      <c r="O14" s="19"/>
       <c r="P14" s="7" t="s">
         <v>284</v>
       </c>
@@ -2371,28 +2402,28 @@
       <c r="R14" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="T14" s="13" t="s">
+      <c r="T14" s="12" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="15" spans="1:20" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="19"/>
+      <c r="A15" s="28"/>
       <c r="B15" s="18"/>
       <c r="C15" s="18"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="15"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
       <c r="L15" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="M15" s="15"/>
-      <c r="N15" s="17"/>
-      <c r="O15" s="17"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="19"/>
+      <c r="O15" s="19"/>
       <c r="P15" s="7" t="s">
         <v>89</v>
       </c>
@@ -2402,28 +2433,28 @@
       <c r="R15" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="T15" s="13" t="s">
+      <c r="T15" s="12" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="16" spans="1:20" ht="57" x14ac:dyDescent="0.3">
-      <c r="A16" s="19"/>
+      <c r="A16" s="28"/>
       <c r="B16" s="18"/>
       <c r="C16" s="18"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="15"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
       <c r="L16" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="M16" s="15"/>
-      <c r="N16" s="17"/>
-      <c r="O16" s="17"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="19"/>
+      <c r="O16" s="19"/>
       <c r="P16" s="7" t="s">
         <v>64</v>
       </c>
@@ -2433,28 +2464,28 @@
       <c r="R16" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="T16" s="13" t="s">
+      <c r="T16" s="12" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="17" spans="1:20" ht="42.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="19"/>
+      <c r="A17" s="28"/>
       <c r="B17" s="18"/>
       <c r="C17" s="18"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="15"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
       <c r="L17" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="M17" s="15"/>
-      <c r="N17" s="17"/>
-      <c r="O17" s="17"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="19"/>
+      <c r="O17" s="19"/>
       <c r="P17" s="7" t="s">
         <v>65</v>
       </c>
@@ -2464,28 +2495,28 @@
       <c r="R17" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="T17" s="13" t="s">
+      <c r="T17" s="12" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="18" spans="1:20" ht="42.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="19"/>
+      <c r="A18" s="28"/>
       <c r="B18" s="18"/>
       <c r="C18" s="18"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="15"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
       <c r="L18" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="M18" s="15"/>
-      <c r="N18" s="17"/>
-      <c r="O18" s="17"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="19"/>
+      <c r="O18" s="19"/>
       <c r="P18" s="7" t="s">
         <v>174</v>
       </c>
@@ -2495,28 +2526,28 @@
       <c r="R18" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="T18" s="13" t="s">
+      <c r="T18" s="12" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="19" spans="1:20" ht="42.75" x14ac:dyDescent="0.3">
-      <c r="A19" s="19"/>
+      <c r="A19" s="28"/>
       <c r="B19" s="18"/>
       <c r="C19" s="18"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="15"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
       <c r="L19" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="M19" s="15"/>
-      <c r="N19" s="17"/>
-      <c r="O19" s="17"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="19"/>
+      <c r="O19" s="19"/>
       <c r="P19" s="7" t="s">
         <v>88</v>
       </c>
@@ -2526,28 +2557,28 @@
       <c r="R19" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="T19" s="13" t="s">
+      <c r="T19" s="12" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="20" spans="1:20" ht="42.75" x14ac:dyDescent="0.3">
-      <c r="A20" s="19"/>
+      <c r="A20" s="28"/>
       <c r="B20" s="18"/>
       <c r="C20" s="18"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="15"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
       <c r="L20" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="M20" s="15"/>
-      <c r="N20" s="17"/>
-      <c r="O20" s="17"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="19"/>
+      <c r="O20" s="19"/>
       <c r="P20" s="7" t="s">
         <v>100</v>
       </c>
@@ -2557,28 +2588,28 @@
       <c r="R20" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="T20" s="13" t="s">
+      <c r="T20" s="12" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="21" spans="1:20" ht="85.5" x14ac:dyDescent="0.3">
-      <c r="A21" s="19"/>
+      <c r="A21" s="28"/>
       <c r="B21" s="18"/>
       <c r="C21" s="18"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="15"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14"/>
       <c r="L21" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="M21" s="15"/>
-      <c r="N21" s="17"/>
-      <c r="O21" s="17"/>
+      <c r="M21" s="14"/>
+      <c r="N21" s="19"/>
+      <c r="O21" s="19"/>
       <c r="P21" s="7" t="s">
         <v>124</v>
       </c>
@@ -2589,32 +2620,32 @@
         <v>126</v>
       </c>
       <c r="S21" s="3"/>
-      <c r="T21" s="13" t="s">
+      <c r="T21" s="12" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="22" spans="1:20" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A22" s="19"/>
+      <c r="A22" s="28"/>
       <c r="B22" s="18"/>
       <c r="C22" s="18"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="15"/>
-      <c r="K22" s="15"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="14"/>
       <c r="L22" s="7" t="s">
         <v>58</v>
       </c>
       <c r="M22" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="N22" s="17" t="s">
+      <c r="N22" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="O22" s="17" t="s">
+      <c r="O22" s="19" t="s">
         <v>67</v>
       </c>
       <c r="P22" s="7" t="s">
@@ -2627,30 +2658,30 @@
         <v>112</v>
       </c>
       <c r="S22" s="3"/>
-      <c r="T22" s="13" t="s">
+      <c r="T22" s="12" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="23" spans="1:20" ht="57" x14ac:dyDescent="0.3">
-      <c r="A23" s="19"/>
+      <c r="A23" s="28"/>
       <c r="B23" s="18"/>
       <c r="C23" s="18"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="15"/>
-      <c r="K23" s="15"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="14"/>
       <c r="L23" s="7" t="s">
         <v>58</v>
       </c>
       <c r="M23" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="N23" s="17"/>
-      <c r="O23" s="17"/>
+      <c r="N23" s="19"/>
+      <c r="O23" s="19"/>
       <c r="P23" s="7" t="s">
         <v>108</v>
       </c>
@@ -2661,30 +2692,30 @@
         <v>150</v>
       </c>
       <c r="S23" s="3"/>
-      <c r="T23" s="13" t="s">
+      <c r="T23" s="12" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="24" spans="1:20" ht="71.25" x14ac:dyDescent="0.3">
-      <c r="A24" s="19"/>
+      <c r="A24" s="28"/>
       <c r="B24" s="18"/>
       <c r="C24" s="18"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="15"/>
-      <c r="K24" s="15"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="14"/>
       <c r="L24" s="7" t="s">
         <v>58</v>
       </c>
       <c r="M24" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="N24" s="17"/>
-      <c r="O24" s="17"/>
+      <c r="N24" s="19"/>
+      <c r="O24" s="19"/>
       <c r="P24" s="7" t="s">
         <v>149</v>
       </c>
@@ -2694,22 +2725,22 @@
       <c r="R24" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="T24" s="13" t="s">
+      <c r="T24" s="12" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="25" spans="1:20" ht="42.75" x14ac:dyDescent="0.3">
-      <c r="A25" s="19"/>
+      <c r="A25" s="28"/>
       <c r="B25" s="18"/>
       <c r="C25" s="18"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="15"/>
-      <c r="K25" s="17" t="s">
+      <c r="D25" s="29"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="19" t="s">
         <v>195</v>
       </c>
       <c r="L25" s="7" t="s">
@@ -2718,10 +2749,10 @@
       <c r="M25" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="N25" s="17" t="s">
+      <c r="N25" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="O25" s="17" t="s">
+      <c r="O25" s="19" t="s">
         <v>71</v>
       </c>
       <c r="P25" s="7" t="s">
@@ -2733,30 +2764,30 @@
       <c r="R25" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="T25" s="13" t="s">
+      <c r="T25" s="12" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="26" spans="1:20" ht="42.75" x14ac:dyDescent="0.3">
-      <c r="A26" s="19"/>
+      <c r="A26" s="28"/>
       <c r="B26" s="18"/>
       <c r="C26" s="18"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="15"/>
-      <c r="K26" s="17"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="19"/>
       <c r="L26" s="7" t="s">
         <v>62</v>
       </c>
       <c r="M26" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="N26" s="17"/>
-      <c r="O26" s="17"/>
+      <c r="N26" s="19"/>
+      <c r="O26" s="19"/>
       <c r="P26" s="7" t="s">
         <v>73</v>
       </c>
@@ -2766,30 +2797,30 @@
       <c r="R26" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="T26" s="13" t="s">
+      <c r="T26" s="12" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="27" spans="1:20" ht="42.75" x14ac:dyDescent="0.3">
-      <c r="A27" s="19"/>
+      <c r="A27" s="28"/>
       <c r="B27" s="18"/>
       <c r="C27" s="18"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="15"/>
-      <c r="I27" s="15"/>
-      <c r="J27" s="15"/>
-      <c r="K27" s="17"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="19"/>
       <c r="L27" s="7" t="s">
         <v>62</v>
       </c>
       <c r="M27" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="N27" s="17"/>
-      <c r="O27" s="17"/>
+      <c r="N27" s="19"/>
+      <c r="O27" s="19"/>
       <c r="P27" s="7" t="s">
         <v>74</v>
       </c>
@@ -2799,30 +2830,30 @@
       <c r="R27" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="T27" s="13" t="s">
+      <c r="T27" s="12" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="28" spans="1:20" ht="42.75" x14ac:dyDescent="0.3">
-      <c r="A28" s="19"/>
+      <c r="A28" s="28"/>
       <c r="B28" s="18"/>
       <c r="C28" s="18"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="15"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="15"/>
-      <c r="K28" s="17"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="19"/>
       <c r="L28" s="7" t="s">
         <v>62</v>
       </c>
       <c r="M28" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="N28" s="17"/>
-      <c r="O28" s="17"/>
+      <c r="N28" s="19"/>
+      <c r="O28" s="19"/>
       <c r="P28" s="7" t="s">
         <v>76</v>
       </c>
@@ -2832,30 +2863,30 @@
       <c r="R28" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="T28" s="13" t="s">
+      <c r="T28" s="12" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="29" spans="1:20" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A29" s="19"/>
+      <c r="A29" s="28"/>
       <c r="B29" s="18"/>
       <c r="C29" s="18"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="15"/>
-      <c r="I29" s="15"/>
-      <c r="J29" s="15"/>
-      <c r="K29" s="17"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="14"/>
+      <c r="K29" s="19"/>
       <c r="L29" s="7" t="s">
         <v>193</v>
       </c>
       <c r="M29" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="N29" s="17"/>
-      <c r="O29" s="17"/>
+      <c r="N29" s="19"/>
+      <c r="O29" s="19"/>
       <c r="P29" s="7" t="s">
         <v>77</v>
       </c>
@@ -2865,30 +2896,30 @@
       <c r="R29" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="T29" s="13" t="s">
+      <c r="T29" s="12" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="30" spans="1:20" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A30" s="19"/>
+      <c r="A30" s="28"/>
       <c r="B30" s="18"/>
       <c r="C30" s="18"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="15"/>
-      <c r="H30" s="15"/>
-      <c r="I30" s="15"/>
-      <c r="J30" s="15"/>
-      <c r="K30" s="17"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="14"/>
+      <c r="K30" s="19"/>
       <c r="L30" s="7" t="s">
         <v>193</v>
       </c>
       <c r="M30" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="N30" s="17"/>
-      <c r="O30" s="17"/>
+      <c r="N30" s="19"/>
+      <c r="O30" s="19"/>
       <c r="P30" s="7" t="s">
         <v>159</v>
       </c>
@@ -2898,30 +2929,30 @@
       <c r="R30" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="T30" s="13" t="s">
+      <c r="T30" s="12" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="31" spans="1:20" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A31" s="19"/>
+      <c r="A31" s="28"/>
       <c r="B31" s="18"/>
       <c r="C31" s="18"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="15"/>
-      <c r="K31" s="17"/>
+      <c r="D31" s="29"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="14"/>
+      <c r="K31" s="19"/>
       <c r="L31" s="7" t="s">
         <v>193</v>
       </c>
       <c r="M31" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="N31" s="17"/>
-      <c r="O31" s="17"/>
+      <c r="N31" s="19"/>
+      <c r="O31" s="19"/>
       <c r="P31" s="7" t="s">
         <v>78</v>
       </c>
@@ -2931,30 +2962,30 @@
       <c r="R31" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="T31" s="13" t="s">
+      <c r="T31" s="12" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="32" spans="1:20" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A32" s="19"/>
+      <c r="A32" s="28"/>
       <c r="B32" s="18"/>
       <c r="C32" s="18"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="15"/>
-      <c r="H32" s="15"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="15"/>
-      <c r="K32" s="17"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="14"/>
+      <c r="K32" s="19"/>
       <c r="L32" s="7" t="s">
         <v>193</v>
       </c>
       <c r="M32" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="N32" s="17"/>
-      <c r="O32" s="17"/>
+      <c r="N32" s="19"/>
+      <c r="O32" s="19"/>
       <c r="P32" s="7" t="s">
         <v>161</v>
       </c>
@@ -2964,30 +2995,30 @@
       <c r="R32" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="T32" s="13" t="s">
+      <c r="T32" s="12" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="33" spans="1:20" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A33" s="19"/>
+      <c r="A33" s="28"/>
       <c r="B33" s="18"/>
       <c r="C33" s="18"/>
-      <c r="D33" s="20"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="15"/>
-      <c r="H33" s="15"/>
-      <c r="I33" s="15"/>
-      <c r="J33" s="15"/>
-      <c r="K33" s="17"/>
+      <c r="D33" s="29"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="14"/>
+      <c r="J33" s="14"/>
+      <c r="K33" s="19"/>
       <c r="L33" s="7" t="s">
         <v>193</v>
       </c>
       <c r="M33" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="N33" s="17"/>
-      <c r="O33" s="17"/>
+      <c r="N33" s="19"/>
+      <c r="O33" s="19"/>
       <c r="P33" s="7" t="s">
         <v>184</v>
       </c>
@@ -2997,30 +3028,30 @@
       <c r="R33" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="T33" s="14" t="s">
+      <c r="T33" s="13" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="34" spans="1:20" ht="71.25" x14ac:dyDescent="0.3">
-      <c r="A34" s="19"/>
+      <c r="A34" s="28"/>
       <c r="B34" s="18"/>
       <c r="C34" s="18"/>
-      <c r="D34" s="20"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="15"/>
-      <c r="G34" s="15"/>
-      <c r="H34" s="15"/>
-      <c r="I34" s="15"/>
-      <c r="J34" s="15"/>
-      <c r="K34" s="17"/>
+      <c r="D34" s="29"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="14"/>
+      <c r="J34" s="14"/>
+      <c r="K34" s="19"/>
       <c r="L34" s="7" t="s">
         <v>62</v>
       </c>
       <c r="M34" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="N34" s="17"/>
-      <c r="O34" s="17"/>
+      <c r="N34" s="19"/>
+      <c r="O34" s="19"/>
       <c r="P34" s="7" t="s">
         <v>111</v>
       </c>
@@ -3030,30 +3061,30 @@
       <c r="R34" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="T34" s="14" t="s">
+      <c r="T34" s="13" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="35" spans="1:20" ht="57" x14ac:dyDescent="0.3">
-      <c r="A35" s="19"/>
+      <c r="A35" s="28"/>
       <c r="B35" s="18"/>
       <c r="C35" s="18"/>
-      <c r="D35" s="20"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="15"/>
-      <c r="G35" s="15"/>
-      <c r="H35" s="15"/>
-      <c r="I35" s="15"/>
-      <c r="J35" s="15"/>
-      <c r="K35" s="17"/>
+      <c r="D35" s="29"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="14"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="14"/>
+      <c r="J35" s="14"/>
+      <c r="K35" s="19"/>
       <c r="L35" s="7" t="s">
         <v>62</v>
       </c>
       <c r="M35" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="N35" s="17"/>
-      <c r="O35" s="17"/>
+      <c r="N35" s="19"/>
+      <c r="O35" s="19"/>
       <c r="P35" s="7" t="s">
         <v>63</v>
       </c>
@@ -3063,30 +3094,30 @@
       <c r="R35" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="T35" s="13" t="s">
+      <c r="T35" s="12" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="36" spans="1:20" ht="42.75" x14ac:dyDescent="0.3">
-      <c r="A36" s="19"/>
+      <c r="A36" s="28"/>
       <c r="B36" s="18"/>
       <c r="C36" s="18"/>
-      <c r="D36" s="20"/>
-      <c r="E36" s="15"/>
-      <c r="F36" s="15"/>
-      <c r="G36" s="15"/>
-      <c r="H36" s="15"/>
-      <c r="I36" s="15"/>
-      <c r="J36" s="15"/>
-      <c r="K36" s="17"/>
+      <c r="D36" s="29"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="14"/>
+      <c r="J36" s="14"/>
+      <c r="K36" s="19"/>
       <c r="L36" s="7" t="s">
         <v>62</v>
       </c>
       <c r="M36" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="N36" s="17"/>
-      <c r="O36" s="17"/>
+      <c r="N36" s="19"/>
+      <c r="O36" s="19"/>
       <c r="P36" s="7" t="s">
         <v>164</v>
       </c>
@@ -3096,30 +3127,30 @@
       <c r="R36" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="T36" s="13" t="s">
+      <c r="T36" s="12" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="37" spans="1:20" ht="42.75" x14ac:dyDescent="0.3">
-      <c r="A37" s="19"/>
+      <c r="A37" s="28"/>
       <c r="B37" s="18"/>
       <c r="C37" s="18"/>
-      <c r="D37" s="20"/>
-      <c r="E37" s="15"/>
-      <c r="F37" s="15"/>
-      <c r="G37" s="15"/>
-      <c r="H37" s="15"/>
-      <c r="I37" s="15"/>
-      <c r="J37" s="15"/>
-      <c r="K37" s="17"/>
+      <c r="D37" s="29"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="14"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="14"/>
+      <c r="J37" s="14"/>
+      <c r="K37" s="19"/>
       <c r="L37" s="7" t="s">
         <v>62</v>
       </c>
       <c r="M37" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="N37" s="17"/>
-      <c r="O37" s="17"/>
+      <c r="N37" s="19"/>
+      <c r="O37" s="19"/>
       <c r="P37" s="7" t="s">
         <v>172</v>
       </c>
@@ -3129,30 +3160,30 @@
       <c r="R37" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="T37" s="13" t="s">
+      <c r="T37" s="12" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="38" spans="1:20" ht="71.25" x14ac:dyDescent="0.3">
-      <c r="A38" s="19"/>
+      <c r="A38" s="28"/>
       <c r="B38" s="18"/>
       <c r="C38" s="18"/>
-      <c r="D38" s="20"/>
-      <c r="E38" s="15"/>
-      <c r="F38" s="15"/>
-      <c r="G38" s="15"/>
-      <c r="H38" s="15"/>
-      <c r="I38" s="15"/>
-      <c r="J38" s="15"/>
-      <c r="K38" s="17"/>
+      <c r="D38" s="29"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="14"/>
+      <c r="H38" s="14"/>
+      <c r="I38" s="14"/>
+      <c r="J38" s="14"/>
+      <c r="K38" s="19"/>
       <c r="L38" s="7" t="s">
         <v>61</v>
       </c>
       <c r="M38" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="N38" s="17"/>
-      <c r="O38" s="17"/>
+      <c r="N38" s="19"/>
+      <c r="O38" s="19"/>
       <c r="P38" s="7" t="s">
         <v>128</v>
       </c>
@@ -3162,22 +3193,22 @@
       <c r="R38" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="T38" s="13" t="s">
+      <c r="T38" s="12" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="39" spans="1:20" ht="42.75" x14ac:dyDescent="0.3">
-      <c r="A39" s="19"/>
+      <c r="A39" s="28"/>
       <c r="B39" s="18"/>
       <c r="C39" s="18"/>
-      <c r="D39" s="20"/>
-      <c r="E39" s="15"/>
-      <c r="F39" s="15"/>
-      <c r="G39" s="15"/>
-      <c r="H39" s="15"/>
-      <c r="I39" s="15"/>
-      <c r="J39" s="15"/>
-      <c r="K39" s="17" t="s">
+      <c r="D39" s="29"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="14"/>
+      <c r="H39" s="14"/>
+      <c r="I39" s="14"/>
+      <c r="J39" s="14"/>
+      <c r="K39" s="19" t="s">
         <v>196</v>
       </c>
       <c r="L39" s="7" t="s">
@@ -3186,10 +3217,10 @@
       <c r="M39" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="N39" s="17" t="s">
+      <c r="N39" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="O39" s="15" t="s">
+      <c r="O39" s="14" t="s">
         <v>110</v>
       </c>
       <c r="P39" s="7" t="s">
@@ -3201,30 +3232,30 @@
       <c r="R39" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="T39" s="13" t="s">
+      <c r="T39" s="12" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="40" spans="1:20" ht="42.75" x14ac:dyDescent="0.3">
-      <c r="A40" s="19"/>
+      <c r="A40" s="28"/>
       <c r="B40" s="18"/>
       <c r="C40" s="18"/>
-      <c r="D40" s="20"/>
-      <c r="E40" s="15"/>
-      <c r="F40" s="15"/>
-      <c r="G40" s="15"/>
-      <c r="H40" s="15"/>
-      <c r="I40" s="15"/>
-      <c r="J40" s="15"/>
-      <c r="K40" s="17"/>
+      <c r="D40" s="29"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="14"/>
+      <c r="H40" s="14"/>
+      <c r="I40" s="14"/>
+      <c r="J40" s="14"/>
+      <c r="K40" s="19"/>
       <c r="L40" s="7" t="s">
         <v>61</v>
       </c>
       <c r="M40" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="N40" s="17"/>
-      <c r="O40" s="15"/>
+      <c r="N40" s="19"/>
+      <c r="O40" s="14"/>
       <c r="P40" s="7" t="s">
         <v>80</v>
       </c>
@@ -3236,25 +3267,25 @@
       </c>
     </row>
     <row r="41" spans="1:20" ht="42.75" x14ac:dyDescent="0.3">
-      <c r="A41" s="19"/>
+      <c r="A41" s="28"/>
       <c r="B41" s="18"/>
       <c r="C41" s="18"/>
-      <c r="D41" s="20"/>
-      <c r="E41" s="15"/>
-      <c r="F41" s="15"/>
-      <c r="G41" s="15"/>
-      <c r="H41" s="15"/>
-      <c r="I41" s="15"/>
-      <c r="J41" s="15"/>
-      <c r="K41" s="17"/>
+      <c r="D41" s="29"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="14"/>
+      <c r="H41" s="14"/>
+      <c r="I41" s="14"/>
+      <c r="J41" s="14"/>
+      <c r="K41" s="19"/>
       <c r="L41" s="7" t="s">
         <v>62</v>
       </c>
       <c r="M41" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="N41" s="17"/>
-      <c r="O41" s="15"/>
+      <c r="N41" s="19"/>
+      <c r="O41" s="14"/>
       <c r="P41" s="7" t="s">
         <v>81</v>
       </c>
@@ -3266,17 +3297,17 @@
       </c>
     </row>
     <row r="42" spans="1:20" ht="42.75" x14ac:dyDescent="0.3">
-      <c r="A42" s="19"/>
+      <c r="A42" s="28"/>
       <c r="B42" s="18"/>
       <c r="C42" s="18"/>
-      <c r="D42" s="20"/>
-      <c r="E42" s="15"/>
-      <c r="F42" s="15"/>
-      <c r="G42" s="15"/>
-      <c r="H42" s="15"/>
-      <c r="I42" s="15"/>
-      <c r="J42" s="15"/>
-      <c r="K42" s="15" t="s">
+      <c r="D42" s="29"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+      <c r="G42" s="14"/>
+      <c r="H42" s="14"/>
+      <c r="I42" s="14"/>
+      <c r="J42" s="14"/>
+      <c r="K42" s="14" t="s">
         <v>197</v>
       </c>
       <c r="L42" s="7" t="s">
@@ -3285,10 +3316,10 @@
       <c r="M42" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="N42" s="17" t="s">
+      <c r="N42" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="O42" s="15" t="s">
+      <c r="O42" s="14" t="s">
         <v>166</v>
       </c>
       <c r="P42" s="7" t="s">
@@ -3302,25 +3333,25 @@
       </c>
     </row>
     <row r="43" spans="1:20" ht="57" x14ac:dyDescent="0.3">
-      <c r="A43" s="19"/>
+      <c r="A43" s="28"/>
       <c r="B43" s="18"/>
       <c r="C43" s="18"/>
-      <c r="D43" s="20"/>
-      <c r="E43" s="15"/>
-      <c r="F43" s="15"/>
-      <c r="G43" s="15"/>
-      <c r="H43" s="15"/>
-      <c r="I43" s="15"/>
-      <c r="J43" s="15"/>
-      <c r="K43" s="15"/>
+      <c r="D43" s="29"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
+      <c r="G43" s="14"/>
+      <c r="H43" s="14"/>
+      <c r="I43" s="14"/>
+      <c r="J43" s="14"/>
+      <c r="K43" s="14"/>
       <c r="L43" s="7" t="s">
         <v>193</v>
       </c>
       <c r="M43" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="N43" s="17"/>
-      <c r="O43" s="15"/>
+      <c r="N43" s="19"/>
+      <c r="O43" s="14"/>
       <c r="P43" s="7" t="s">
         <v>133</v>
       </c>
@@ -3332,25 +3363,25 @@
       </c>
     </row>
     <row r="44" spans="1:20" ht="57" x14ac:dyDescent="0.3">
-      <c r="A44" s="19"/>
+      <c r="A44" s="28"/>
       <c r="B44" s="18"/>
       <c r="C44" s="18"/>
-      <c r="D44" s="20"/>
-      <c r="E44" s="15"/>
-      <c r="F44" s="15"/>
-      <c r="G44" s="15"/>
-      <c r="H44" s="15"/>
-      <c r="I44" s="15"/>
-      <c r="J44" s="15"/>
-      <c r="K44" s="15"/>
+      <c r="D44" s="29"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="14"/>
+      <c r="G44" s="14"/>
+      <c r="H44" s="14"/>
+      <c r="I44" s="14"/>
+      <c r="J44" s="14"/>
+      <c r="K44" s="14"/>
       <c r="L44" s="7" t="s">
         <v>193</v>
       </c>
       <c r="M44" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="N44" s="17"/>
-      <c r="O44" s="15"/>
+      <c r="N44" s="19"/>
+      <c r="O44" s="14"/>
       <c r="P44" s="7" t="s">
         <v>165</v>
       </c>
@@ -3362,25 +3393,25 @@
       </c>
     </row>
     <row r="45" spans="1:20" ht="57" x14ac:dyDescent="0.3">
-      <c r="A45" s="19"/>
+      <c r="A45" s="28"/>
       <c r="B45" s="18"/>
       <c r="C45" s="18"/>
-      <c r="D45" s="20"/>
-      <c r="E45" s="15"/>
-      <c r="F45" s="15"/>
-      <c r="G45" s="15"/>
-      <c r="H45" s="15"/>
-      <c r="I45" s="15"/>
-      <c r="J45" s="15"/>
-      <c r="K45" s="15"/>
+      <c r="D45" s="29"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="14"/>
+      <c r="G45" s="14"/>
+      <c r="H45" s="14"/>
+      <c r="I45" s="14"/>
+      <c r="J45" s="14"/>
+      <c r="K45" s="14"/>
       <c r="L45" s="7" t="s">
         <v>193</v>
       </c>
       <c r="M45" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="N45" s="17"/>
-      <c r="O45" s="15"/>
+      <c r="N45" s="19"/>
+      <c r="O45" s="14"/>
       <c r="P45" s="7" t="s">
         <v>170</v>
       </c>
@@ -3392,25 +3423,25 @@
       </c>
     </row>
     <row r="46" spans="1:20" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A46" s="19"/>
+      <c r="A46" s="28"/>
       <c r="B46" s="18"/>
       <c r="C46" s="18"/>
-      <c r="D46" s="20"/>
-      <c r="E46" s="15"/>
-      <c r="F46" s="15"/>
-      <c r="G46" s="15"/>
-      <c r="H46" s="15"/>
-      <c r="I46" s="15"/>
-      <c r="J46" s="15"/>
-      <c r="K46" s="15"/>
+      <c r="D46" s="29"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="14"/>
+      <c r="G46" s="14"/>
+      <c r="H46" s="14"/>
+      <c r="I46" s="14"/>
+      <c r="J46" s="14"/>
+      <c r="K46" s="14"/>
       <c r="L46" s="7" t="s">
         <v>302</v>
       </c>
       <c r="M46" s="7" t="s">
         <v>303</v>
       </c>
-      <c r="N46" s="17"/>
-      <c r="O46" s="15"/>
+      <c r="N46" s="19"/>
+      <c r="O46" s="14"/>
       <c r="P46" s="7" t="s">
         <v>269</v>
       </c>
@@ -3422,25 +3453,25 @@
       </c>
     </row>
     <row r="47" spans="1:20" ht="71.25" x14ac:dyDescent="0.3">
-      <c r="A47" s="19"/>
+      <c r="A47" s="28"/>
       <c r="B47" s="18"/>
       <c r="C47" s="18"/>
-      <c r="D47" s="20"/>
-      <c r="E47" s="15"/>
-      <c r="F47" s="15"/>
-      <c r="G47" s="15"/>
-      <c r="H47" s="15"/>
-      <c r="I47" s="15"/>
-      <c r="J47" s="15"/>
-      <c r="K47" s="15"/>
+      <c r="D47" s="29"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="14"/>
+      <c r="G47" s="14"/>
+      <c r="H47" s="14"/>
+      <c r="I47" s="14"/>
+      <c r="J47" s="14"/>
+      <c r="K47" s="14"/>
       <c r="L47" s="7" t="s">
         <v>193</v>
       </c>
       <c r="M47" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="N47" s="17"/>
-      <c r="O47" s="15"/>
+      <c r="N47" s="19"/>
+      <c r="O47" s="14"/>
       <c r="P47" s="7" t="s">
         <v>180</v>
       </c>
@@ -3452,25 +3483,25 @@
       </c>
     </row>
     <row r="48" spans="1:20" ht="71.25" x14ac:dyDescent="0.3">
-      <c r="A48" s="19"/>
+      <c r="A48" s="28"/>
       <c r="B48" s="18"/>
       <c r="C48" s="18"/>
-      <c r="D48" s="20"/>
-      <c r="E48" s="15"/>
-      <c r="F48" s="15"/>
-      <c r="G48" s="17" t="s">
+      <c r="D48" s="29"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="14"/>
+      <c r="G48" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="H48" s="17" t="s">
+      <c r="H48" s="19" t="s">
         <v>139</v>
       </c>
-      <c r="I48" s="15" t="s">
+      <c r="I48" s="14" t="s">
         <v>198</v>
       </c>
-      <c r="J48" s="15" t="s">
+      <c r="J48" s="14" t="s">
         <v>199</v>
       </c>
-      <c r="K48" s="15" t="s">
+      <c r="K48" s="14" t="s">
         <v>84</v>
       </c>
       <c r="L48" s="7" t="s">
@@ -3496,27 +3527,27 @@
       </c>
     </row>
     <row r="49" spans="1:18" ht="114" x14ac:dyDescent="0.3">
-      <c r="A49" s="19"/>
+      <c r="A49" s="28"/>
       <c r="B49" s="18"/>
       <c r="C49" s="18"/>
-      <c r="D49" s="20"/>
-      <c r="E49" s="15"/>
-      <c r="F49" s="15"/>
-      <c r="G49" s="17"/>
-      <c r="H49" s="17"/>
-      <c r="I49" s="15"/>
-      <c r="J49" s="15"/>
-      <c r="K49" s="15"/>
-      <c r="L49" s="15" t="s">
+      <c r="D49" s="29"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
+      <c r="G49" s="19"/>
+      <c r="H49" s="19"/>
+      <c r="I49" s="14"/>
+      <c r="J49" s="14"/>
+      <c r="K49" s="14"/>
+      <c r="L49" s="14" t="s">
         <v>193</v>
       </c>
-      <c r="M49" s="15" t="s">
+      <c r="M49" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="N49" s="17" t="s">
+      <c r="N49" s="19" t="s">
         <v>137</v>
       </c>
-      <c r="O49" s="15" t="s">
+      <c r="O49" s="14" t="s">
         <v>138</v>
       </c>
       <c r="P49" s="7" t="s">
@@ -3530,21 +3561,21 @@
       </c>
     </row>
     <row r="50" spans="1:18" ht="42.75" x14ac:dyDescent="0.3">
-      <c r="A50" s="19"/>
+      <c r="A50" s="28"/>
       <c r="B50" s="18"/>
       <c r="C50" s="18"/>
-      <c r="D50" s="20"/>
-      <c r="E50" s="15"/>
-      <c r="F50" s="15"/>
-      <c r="G50" s="17"/>
-      <c r="H50" s="17"/>
-      <c r="I50" s="15"/>
-      <c r="J50" s="15"/>
-      <c r="K50" s="15"/>
-      <c r="L50" s="15"/>
-      <c r="M50" s="15"/>
-      <c r="N50" s="17"/>
-      <c r="O50" s="15"/>
+      <c r="D50" s="29"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14"/>
+      <c r="G50" s="19"/>
+      <c r="H50" s="19"/>
+      <c r="I50" s="14"/>
+      <c r="J50" s="14"/>
+      <c r="K50" s="14"/>
+      <c r="L50" s="14"/>
+      <c r="M50" s="14"/>
+      <c r="N50" s="19"/>
+      <c r="O50" s="14"/>
       <c r="P50" s="7" t="s">
         <v>101</v>
       </c>
@@ -3556,21 +3587,21 @@
       </c>
     </row>
     <row r="51" spans="1:18" ht="57" x14ac:dyDescent="0.3">
-      <c r="A51" s="19"/>
+      <c r="A51" s="28"/>
       <c r="B51" s="18"/>
       <c r="C51" s="18"/>
-      <c r="D51" s="20"/>
-      <c r="E51" s="15"/>
-      <c r="F51" s="15"/>
-      <c r="G51" s="17"/>
-      <c r="H51" s="17"/>
-      <c r="I51" s="15"/>
-      <c r="J51" s="15"/>
-      <c r="K51" s="15"/>
-      <c r="L51" s="15"/>
-      <c r="M51" s="15"/>
-      <c r="N51" s="17"/>
-      <c r="O51" s="15"/>
+      <c r="D51" s="29"/>
+      <c r="E51" s="14"/>
+      <c r="F51" s="14"/>
+      <c r="G51" s="19"/>
+      <c r="H51" s="19"/>
+      <c r="I51" s="14"/>
+      <c r="J51" s="14"/>
+      <c r="K51" s="14"/>
+      <c r="L51" s="14"/>
+      <c r="M51" s="14"/>
+      <c r="N51" s="19"/>
+      <c r="O51" s="14"/>
       <c r="P51" s="7" t="s">
         <v>141</v>
       </c>
@@ -3582,21 +3613,21 @@
       </c>
     </row>
     <row r="52" spans="1:18" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A52" s="19"/>
+      <c r="A52" s="28"/>
       <c r="B52" s="18"/>
       <c r="C52" s="18"/>
-      <c r="D52" s="20"/>
-      <c r="E52" s="15"/>
-      <c r="F52" s="15"/>
-      <c r="G52" s="17"/>
-      <c r="H52" s="17"/>
-      <c r="I52" s="15"/>
-      <c r="J52" s="15"/>
-      <c r="K52" s="15"/>
-      <c r="L52" s="15"/>
-      <c r="M52" s="15"/>
-      <c r="N52" s="17"/>
-      <c r="O52" s="15"/>
+      <c r="D52" s="29"/>
+      <c r="E52" s="14"/>
+      <c r="F52" s="14"/>
+      <c r="G52" s="19"/>
+      <c r="H52" s="19"/>
+      <c r="I52" s="14"/>
+      <c r="J52" s="14"/>
+      <c r="K52" s="14"/>
+      <c r="L52" s="14"/>
+      <c r="M52" s="14"/>
+      <c r="N52" s="19"/>
+      <c r="O52" s="14"/>
       <c r="P52" s="7" t="s">
         <v>226</v>
       </c>
@@ -3608,21 +3639,21 @@
       </c>
     </row>
     <row r="53" spans="1:18" ht="99.75" x14ac:dyDescent="0.3">
-      <c r="A53" s="19"/>
+      <c r="A53" s="28"/>
       <c r="B53" s="18"/>
       <c r="C53" s="18"/>
-      <c r="D53" s="20"/>
-      <c r="E53" s="15"/>
-      <c r="F53" s="15"/>
-      <c r="G53" s="17"/>
-      <c r="H53" s="17"/>
-      <c r="I53" s="15"/>
-      <c r="J53" s="15"/>
-      <c r="K53" s="15"/>
-      <c r="L53" s="15"/>
-      <c r="M53" s="15"/>
-      <c r="N53" s="17"/>
-      <c r="O53" s="15"/>
+      <c r="D53" s="29"/>
+      <c r="E53" s="14"/>
+      <c r="F53" s="14"/>
+      <c r="G53" s="19"/>
+      <c r="H53" s="19"/>
+      <c r="I53" s="14"/>
+      <c r="J53" s="14"/>
+      <c r="K53" s="14"/>
+      <c r="L53" s="14"/>
+      <c r="M53" s="14"/>
+      <c r="N53" s="19"/>
+      <c r="O53" s="14"/>
       <c r="P53" s="7" t="s">
         <v>98</v>
       </c>
@@ -3634,21 +3665,21 @@
       </c>
     </row>
     <row r="54" spans="1:18" ht="128.25" x14ac:dyDescent="0.3">
-      <c r="A54" s="19"/>
+      <c r="A54" s="28"/>
       <c r="B54" s="18"/>
       <c r="C54" s="18"/>
-      <c r="D54" s="20"/>
-      <c r="E54" s="15"/>
-      <c r="F54" s="15"/>
-      <c r="G54" s="17"/>
-      <c r="H54" s="17"/>
-      <c r="I54" s="15"/>
-      <c r="J54" s="15"/>
-      <c r="K54" s="15"/>
-      <c r="L54" s="15"/>
-      <c r="M54" s="15"/>
-      <c r="N54" s="17"/>
-      <c r="O54" s="15"/>
+      <c r="D54" s="29"/>
+      <c r="E54" s="14"/>
+      <c r="F54" s="14"/>
+      <c r="G54" s="19"/>
+      <c r="H54" s="19"/>
+      <c r="I54" s="14"/>
+      <c r="J54" s="14"/>
+      <c r="K54" s="14"/>
+      <c r="L54" s="14"/>
+      <c r="M54" s="14"/>
+      <c r="N54" s="19"/>
+      <c r="O54" s="14"/>
       <c r="P54" s="7" t="s">
         <v>268</v>
       </c>
@@ -3660,21 +3691,21 @@
       </c>
     </row>
     <row r="55" spans="1:18" ht="99.75" x14ac:dyDescent="0.3">
-      <c r="A55" s="19"/>
+      <c r="A55" s="28"/>
       <c r="B55" s="18"/>
       <c r="C55" s="18"/>
-      <c r="D55" s="20"/>
-      <c r="E55" s="15"/>
-      <c r="F55" s="15"/>
-      <c r="G55" s="17"/>
-      <c r="H55" s="17"/>
-      <c r="I55" s="15"/>
-      <c r="J55" s="15"/>
-      <c r="K55" s="15"/>
-      <c r="L55" s="15"/>
-      <c r="M55" s="15"/>
-      <c r="N55" s="17"/>
-      <c r="O55" s="15"/>
+      <c r="D55" s="29"/>
+      <c r="E55" s="14"/>
+      <c r="F55" s="14"/>
+      <c r="G55" s="19"/>
+      <c r="H55" s="19"/>
+      <c r="I55" s="14"/>
+      <c r="J55" s="14"/>
+      <c r="K55" s="14"/>
+      <c r="L55" s="14"/>
+      <c r="M55" s="14"/>
+      <c r="N55" s="19"/>
+      <c r="O55" s="14"/>
       <c r="P55" s="7" t="s">
         <v>92</v>
       </c>
@@ -3686,27 +3717,27 @@
       </c>
     </row>
     <row r="56" spans="1:18" ht="42.75" x14ac:dyDescent="0.3">
-      <c r="A56" s="19"/>
+      <c r="A56" s="28"/>
       <c r="B56" s="18"/>
       <c r="C56" s="18"/>
-      <c r="D56" s="20"/>
-      <c r="E56" s="15"/>
-      <c r="F56" s="15"/>
-      <c r="G56" s="17"/>
-      <c r="H56" s="17"/>
-      <c r="I56" s="15"/>
-      <c r="J56" s="15"/>
-      <c r="K56" s="15"/>
-      <c r="L56" s="15" t="s">
+      <c r="D56" s="29"/>
+      <c r="E56" s="14"/>
+      <c r="F56" s="14"/>
+      <c r="G56" s="19"/>
+      <c r="H56" s="19"/>
+      <c r="I56" s="14"/>
+      <c r="J56" s="14"/>
+      <c r="K56" s="14"/>
+      <c r="L56" s="14" t="s">
         <v>193</v>
       </c>
-      <c r="M56" s="15" t="s">
+      <c r="M56" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="N56" s="17" t="s">
+      <c r="N56" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="O56" s="15" t="s">
+      <c r="O56" s="14" t="s">
         <v>156</v>
       </c>
       <c r="P56" s="7" t="s">
@@ -3720,21 +3751,21 @@
       </c>
     </row>
     <row r="57" spans="1:18" ht="42.75" x14ac:dyDescent="0.3">
-      <c r="A57" s="19"/>
+      <c r="A57" s="28"/>
       <c r="B57" s="18"/>
       <c r="C57" s="18"/>
-      <c r="D57" s="20"/>
-      <c r="E57" s="15"/>
-      <c r="F57" s="15"/>
-      <c r="G57" s="17"/>
-      <c r="H57" s="17"/>
-      <c r="I57" s="15"/>
-      <c r="J57" s="15"/>
-      <c r="K57" s="15"/>
-      <c r="L57" s="15"/>
-      <c r="M57" s="15"/>
-      <c r="N57" s="17"/>
-      <c r="O57" s="15"/>
+      <c r="D57" s="29"/>
+      <c r="E57" s="14"/>
+      <c r="F57" s="14"/>
+      <c r="G57" s="19"/>
+      <c r="H57" s="19"/>
+      <c r="I57" s="14"/>
+      <c r="J57" s="14"/>
+      <c r="K57" s="14"/>
+      <c r="L57" s="14"/>
+      <c r="M57" s="14"/>
+      <c r="N57" s="19"/>
+      <c r="O57" s="14"/>
       <c r="P57" s="7" t="s">
         <v>145</v>
       </c>
@@ -3746,21 +3777,21 @@
       </c>
     </row>
     <row r="58" spans="1:18" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A58" s="19"/>
+      <c r="A58" s="28"/>
       <c r="B58" s="18"/>
       <c r="C58" s="18"/>
-      <c r="D58" s="20"/>
-      <c r="E58" s="15"/>
-      <c r="F58" s="15"/>
-      <c r="G58" s="17"/>
-      <c r="H58" s="17"/>
-      <c r="I58" s="15"/>
-      <c r="J58" s="15"/>
-      <c r="K58" s="15"/>
-      <c r="L58" s="15"/>
-      <c r="M58" s="15"/>
-      <c r="N58" s="17"/>
-      <c r="O58" s="15"/>
+      <c r="D58" s="29"/>
+      <c r="E58" s="14"/>
+      <c r="F58" s="14"/>
+      <c r="G58" s="19"/>
+      <c r="H58" s="19"/>
+      <c r="I58" s="14"/>
+      <c r="J58" s="14"/>
+      <c r="K58" s="14"/>
+      <c r="L58" s="14"/>
+      <c r="M58" s="14"/>
+      <c r="N58" s="19"/>
+      <c r="O58" s="14"/>
       <c r="P58" s="7" t="s">
         <v>263</v>
       </c>
@@ -3772,21 +3803,21 @@
       </c>
     </row>
     <row r="59" spans="1:18" ht="42.75" x14ac:dyDescent="0.3">
-      <c r="A59" s="19"/>
+      <c r="A59" s="28"/>
       <c r="B59" s="18"/>
       <c r="C59" s="18"/>
-      <c r="D59" s="20"/>
-      <c r="E59" s="15"/>
-      <c r="F59" s="15"/>
-      <c r="G59" s="17"/>
-      <c r="H59" s="17"/>
-      <c r="I59" s="15"/>
-      <c r="J59" s="15"/>
-      <c r="K59" s="15"/>
-      <c r="L59" s="15"/>
-      <c r="M59" s="15"/>
-      <c r="N59" s="17"/>
-      <c r="O59" s="15"/>
+      <c r="D59" s="29"/>
+      <c r="E59" s="14"/>
+      <c r="F59" s="14"/>
+      <c r="G59" s="19"/>
+      <c r="H59" s="19"/>
+      <c r="I59" s="14"/>
+      <c r="J59" s="14"/>
+      <c r="K59" s="14"/>
+      <c r="L59" s="14"/>
+      <c r="M59" s="14"/>
+      <c r="N59" s="19"/>
+      <c r="O59" s="14"/>
       <c r="P59" s="7" t="s">
         <v>146</v>
       </c>
@@ -3798,21 +3829,21 @@
       </c>
     </row>
     <row r="60" spans="1:18" ht="42.75" x14ac:dyDescent="0.3">
-      <c r="A60" s="19"/>
+      <c r="A60" s="28"/>
       <c r="B60" s="18"/>
       <c r="C60" s="18"/>
-      <c r="D60" s="20"/>
-      <c r="E60" s="15"/>
-      <c r="F60" s="15"/>
-      <c r="G60" s="17"/>
-      <c r="H60" s="17"/>
-      <c r="I60" s="15"/>
-      <c r="J60" s="15"/>
-      <c r="K60" s="15"/>
-      <c r="L60" s="15"/>
-      <c r="M60" s="15"/>
-      <c r="N60" s="17"/>
-      <c r="O60" s="15"/>
+      <c r="D60" s="29"/>
+      <c r="E60" s="14"/>
+      <c r="F60" s="14"/>
+      <c r="G60" s="19"/>
+      <c r="H60" s="19"/>
+      <c r="I60" s="14"/>
+      <c r="J60" s="14"/>
+      <c r="K60" s="14"/>
+      <c r="L60" s="14"/>
+      <c r="M60" s="14"/>
+      <c r="N60" s="19"/>
+      <c r="O60" s="14"/>
       <c r="P60" s="7" t="s">
         <v>188</v>
       </c>
@@ -3824,17 +3855,17 @@
       </c>
     </row>
     <row r="61" spans="1:18" ht="387.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="19"/>
+      <c r="A61" s="28"/>
       <c r="B61" s="18"/>
       <c r="C61" s="18"/>
-      <c r="D61" s="20"/>
-      <c r="E61" s="15"/>
-      <c r="F61" s="15"/>
-      <c r="G61" s="17"/>
-      <c r="H61" s="17"/>
-      <c r="I61" s="15"/>
-      <c r="J61" s="15"/>
-      <c r="K61" s="15"/>
+      <c r="D61" s="29"/>
+      <c r="E61" s="14"/>
+      <c r="F61" s="14"/>
+      <c r="G61" s="19"/>
+      <c r="H61" s="19"/>
+      <c r="I61" s="14"/>
+      <c r="J61" s="14"/>
+      <c r="K61" s="14"/>
       <c r="L61" s="7" t="s">
         <v>193</v>
       </c>
@@ -3858,17 +3889,17 @@
       </c>
     </row>
     <row r="62" spans="1:18" ht="71.25" x14ac:dyDescent="0.3">
-      <c r="A62" s="19"/>
+      <c r="A62" s="28"/>
       <c r="B62" s="18"/>
       <c r="C62" s="18"/>
-      <c r="D62" s="20"/>
-      <c r="E62" s="15"/>
-      <c r="F62" s="15"/>
-      <c r="G62" s="17"/>
-      <c r="H62" s="17"/>
-      <c r="I62" s="15"/>
-      <c r="J62" s="15"/>
-      <c r="K62" s="15"/>
+      <c r="D62" s="29"/>
+      <c r="E62" s="14"/>
+      <c r="F62" s="14"/>
+      <c r="G62" s="19"/>
+      <c r="H62" s="19"/>
+      <c r="I62" s="14"/>
+      <c r="J62" s="14"/>
+      <c r="K62" s="14"/>
       <c r="L62" s="7" t="s">
         <v>193</v>
       </c>
@@ -3892,17 +3923,17 @@
       </c>
     </row>
     <row r="63" spans="1:18" ht="42.75" x14ac:dyDescent="0.3">
-      <c r="A63" s="19"/>
+      <c r="A63" s="28"/>
       <c r="B63" s="18"/>
       <c r="C63" s="18"/>
-      <c r="D63" s="20"/>
-      <c r="E63" s="15"/>
-      <c r="F63" s="15"/>
-      <c r="G63" s="17"/>
-      <c r="H63" s="17"/>
-      <c r="I63" s="15"/>
-      <c r="J63" s="15"/>
-      <c r="K63" s="15"/>
+      <c r="D63" s="29"/>
+      <c r="E63" s="14"/>
+      <c r="F63" s="14"/>
+      <c r="G63" s="19"/>
+      <c r="H63" s="19"/>
+      <c r="I63" s="14"/>
+      <c r="J63" s="14"/>
+      <c r="K63" s="14"/>
       <c r="L63" s="7" t="s">
         <v>193</v>
       </c>
@@ -3926,25 +3957,25 @@
       </c>
     </row>
     <row r="64" spans="1:18" ht="63" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="19"/>
+      <c r="A64" s="28"/>
       <c r="B64" s="18"/>
       <c r="C64" s="18"/>
-      <c r="D64" s="20"/>
-      <c r="E64" s="15"/>
-      <c r="F64" s="15"/>
-      <c r="G64" s="15" t="s">
+      <c r="D64" s="29"/>
+      <c r="E64" s="14"/>
+      <c r="F64" s="14"/>
+      <c r="G64" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="H64" s="15" t="s">
+      <c r="H64" s="14" t="s">
         <v>203</v>
       </c>
-      <c r="I64" s="15" t="s">
+      <c r="I64" s="14" t="s">
         <v>205</v>
       </c>
-      <c r="J64" s="15" t="s">
+      <c r="J64" s="14" t="s">
         <v>204</v>
       </c>
-      <c r="K64" s="15" t="s">
+      <c r="K64" s="14" t="s">
         <v>82</v>
       </c>
       <c r="L64" s="7" t="s">
@@ -3970,17 +4001,17 @@
       </c>
     </row>
     <row r="65" spans="1:18" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="19"/>
+      <c r="A65" s="28"/>
       <c r="B65" s="18"/>
       <c r="C65" s="18"/>
-      <c r="D65" s="20"/>
-      <c r="E65" s="15"/>
-      <c r="F65" s="15"/>
-      <c r="G65" s="15"/>
-      <c r="H65" s="15"/>
-      <c r="I65" s="15"/>
-      <c r="J65" s="15"/>
-      <c r="K65" s="15"/>
+      <c r="D65" s="29"/>
+      <c r="E65" s="14"/>
+      <c r="F65" s="14"/>
+      <c r="G65" s="14"/>
+      <c r="H65" s="14"/>
+      <c r="I65" s="14"/>
+      <c r="J65" s="14"/>
+      <c r="K65" s="14"/>
       <c r="L65" s="7" t="s">
         <v>207</v>
       </c>
@@ -4004,17 +4035,17 @@
       </c>
     </row>
     <row r="66" spans="1:18" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="19"/>
+      <c r="A66" s="28"/>
       <c r="B66" s="18"/>
       <c r="C66" s="18"/>
-      <c r="D66" s="20"/>
-      <c r="E66" s="15"/>
-      <c r="F66" s="15"/>
-      <c r="G66" s="15"/>
-      <c r="H66" s="15"/>
-      <c r="I66" s="15"/>
-      <c r="J66" s="15"/>
-      <c r="K66" s="15"/>
+      <c r="D66" s="29"/>
+      <c r="E66" s="14"/>
+      <c r="F66" s="14"/>
+      <c r="G66" s="14"/>
+      <c r="H66" s="14"/>
+      <c r="I66" s="14"/>
+      <c r="J66" s="14"/>
+      <c r="K66" s="14"/>
       <c r="L66" s="7" t="s">
         <v>213</v>
       </c>
@@ -4036,17 +4067,17 @@
       </c>
     </row>
     <row r="67" spans="1:18" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="19"/>
+      <c r="A67" s="28"/>
       <c r="B67" s="18"/>
       <c r="C67" s="18"/>
-      <c r="D67" s="20"/>
-      <c r="E67" s="15"/>
-      <c r="F67" s="15"/>
-      <c r="G67" s="15"/>
-      <c r="H67" s="15"/>
-      <c r="I67" s="15"/>
-      <c r="J67" s="15"/>
-      <c r="K67" s="15"/>
+      <c r="D67" s="29"/>
+      <c r="E67" s="14"/>
+      <c r="F67" s="14"/>
+      <c r="G67" s="14"/>
+      <c r="H67" s="14"/>
+      <c r="I67" s="14"/>
+      <c r="J67" s="14"/>
+      <c r="K67" s="14"/>
       <c r="L67" s="7" t="s">
         <v>214</v>
       </c>
@@ -4070,17 +4101,17 @@
       </c>
     </row>
     <row r="68" spans="1:18" ht="71.25" x14ac:dyDescent="0.3">
-      <c r="A68" s="19"/>
+      <c r="A68" s="28"/>
       <c r="B68" s="18"/>
       <c r="C68" s="18"/>
-      <c r="D68" s="20"/>
-      <c r="E68" s="15"/>
-      <c r="F68" s="15"/>
-      <c r="G68" s="15"/>
-      <c r="H68" s="15"/>
-      <c r="I68" s="15"/>
-      <c r="J68" s="15"/>
-      <c r="K68" s="15"/>
+      <c r="D68" s="29"/>
+      <c r="E68" s="14"/>
+      <c r="F68" s="14"/>
+      <c r="G68" s="14"/>
+      <c r="H68" s="14"/>
+      <c r="I68" s="14"/>
+      <c r="J68" s="14"/>
+      <c r="K68" s="14"/>
       <c r="L68" s="7" t="s">
         <v>206</v>
       </c>
@@ -4104,12 +4135,12 @@
       </c>
     </row>
     <row r="69" spans="1:18" ht="63" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="19"/>
+      <c r="A69" s="28"/>
       <c r="B69" s="18"/>
       <c r="C69" s="18"/>
-      <c r="D69" s="20"/>
-      <c r="E69" s="15"/>
-      <c r="F69" s="15"/>
+      <c r="D69" s="29"/>
+      <c r="E69" s="14"/>
+      <c r="F69" s="14"/>
       <c r="G69" s="9" t="s">
         <v>272</v>
       </c>
@@ -4148,14 +4179,14 @@
       </c>
     </row>
     <row r="70" spans="1:18" ht="71.25" x14ac:dyDescent="0.3">
-      <c r="A70" s="19"/>
+      <c r="A70" s="28"/>
       <c r="B70" s="18"/>
       <c r="C70" s="18"/>
-      <c r="D70" s="20"/>
+      <c r="D70" s="29"/>
       <c r="E70" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="F70" s="20" t="s">
+      <c r="F70" s="29" t="s">
         <v>295</v>
       </c>
       <c r="G70" s="9" t="s">
@@ -4194,16 +4225,16 @@
       </c>
     </row>
     <row r="71" spans="1:18" ht="57" x14ac:dyDescent="0.3">
-      <c r="A71" s="19"/>
+      <c r="A71" s="28"/>
       <c r="B71" s="18"/>
       <c r="C71" s="18"/>
-      <c r="D71" s="20"/>
+      <c r="D71" s="29"/>
       <c r="E71" s="18"/>
-      <c r="F71" s="20"/>
-      <c r="G71" s="15" t="s">
+      <c r="F71" s="29"/>
+      <c r="G71" s="14" t="s">
         <v>307</v>
       </c>
-      <c r="H71" s="15" t="s">
+      <c r="H71" s="14" t="s">
         <v>308</v>
       </c>
       <c r="I71" s="7" t="s">
@@ -4212,7 +4243,7 @@
       <c r="J71" s="7" t="s">
         <v>310</v>
       </c>
-      <c r="K71" s="15" t="s">
+      <c r="K71" s="14" t="s">
         <v>307</v>
       </c>
       <c r="L71" s="7" t="s">
@@ -4228,29 +4259,29 @@
         <v>313</v>
       </c>
       <c r="P71" s="7"/>
-      <c r="Q71" s="15" t="s">
+      <c r="Q71" s="14" t="s">
         <v>362</v>
       </c>
-      <c r="R71" s="15" t="s">
+      <c r="R71" s="14" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="72" spans="1:18" ht="120" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="19"/>
+      <c r="A72" s="28"/>
       <c r="B72" s="18"/>
       <c r="C72" s="18"/>
-      <c r="D72" s="20"/>
+      <c r="D72" s="29"/>
       <c r="E72" s="18"/>
-      <c r="F72" s="20"/>
-      <c r="G72" s="15"/>
-      <c r="H72" s="15"/>
+      <c r="F72" s="29"/>
+      <c r="G72" s="14"/>
+      <c r="H72" s="14"/>
       <c r="I72" s="7" t="s">
         <v>315</v>
       </c>
       <c r="J72" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="K72" s="15"/>
+      <c r="K72" s="14"/>
       <c r="L72" s="7" t="s">
         <v>294</v>
       </c>
@@ -4264,25 +4295,25 @@
         <v>324</v>
       </c>
       <c r="P72" s="7"/>
-      <c r="Q72" s="15"/>
-      <c r="R72" s="15"/>
+      <c r="Q72" s="14"/>
+      <c r="R72" s="14"/>
     </row>
     <row r="73" spans="1:18" ht="71.25" x14ac:dyDescent="0.3">
-      <c r="A73" s="19"/>
+      <c r="A73" s="28"/>
       <c r="B73" s="18"/>
       <c r="C73" s="18"/>
-      <c r="D73" s="20"/>
+      <c r="D73" s="29"/>
       <c r="E73" s="18"/>
-      <c r="F73" s="20"/>
-      <c r="G73" s="15"/>
-      <c r="H73" s="15"/>
+      <c r="F73" s="29"/>
+      <c r="G73" s="14"/>
+      <c r="H73" s="14"/>
       <c r="I73" s="7" t="s">
         <v>316</v>
       </c>
       <c r="J73" s="7" t="s">
         <v>319</v>
       </c>
-      <c r="K73" s="15"/>
+      <c r="K73" s="14"/>
       <c r="L73" s="7" t="s">
         <v>294</v>
       </c>
@@ -4296,25 +4327,25 @@
         <v>325</v>
       </c>
       <c r="P73" s="7"/>
-      <c r="Q73" s="15"/>
-      <c r="R73" s="15"/>
+      <c r="Q73" s="14"/>
+      <c r="R73" s="14"/>
     </row>
     <row r="74" spans="1:18" ht="57" x14ac:dyDescent="0.3">
-      <c r="A74" s="19"/>
+      <c r="A74" s="28"/>
       <c r="B74" s="18"/>
       <c r="C74" s="18"/>
-      <c r="D74" s="20"/>
+      <c r="D74" s="29"/>
       <c r="E74" s="18"/>
-      <c r="F74" s="20"/>
-      <c r="G74" s="15"/>
-      <c r="H74" s="15"/>
+      <c r="F74" s="29"/>
+      <c r="G74" s="14"/>
+      <c r="H74" s="14"/>
       <c r="I74" s="7" t="s">
         <v>317</v>
       </c>
       <c r="J74" s="7" t="s">
         <v>320</v>
       </c>
-      <c r="K74" s="15"/>
+      <c r="K74" s="14"/>
       <c r="L74" s="7" t="s">
         <v>294</v>
       </c>
@@ -4328,25 +4359,25 @@
         <v>326</v>
       </c>
       <c r="P74" s="7"/>
-      <c r="Q74" s="15"/>
-      <c r="R74" s="15"/>
+      <c r="Q74" s="14"/>
+      <c r="R74" s="14"/>
     </row>
     <row r="75" spans="1:18" ht="57" x14ac:dyDescent="0.3">
-      <c r="A75" s="19"/>
+      <c r="A75" s="28"/>
       <c r="B75" s="18"/>
       <c r="C75" s="18"/>
-      <c r="D75" s="20"/>
+      <c r="D75" s="29"/>
       <c r="E75" s="18"/>
-      <c r="F75" s="20"/>
-      <c r="G75" s="15"/>
-      <c r="H75" s="15"/>
+      <c r="F75" s="29"/>
+      <c r="G75" s="14"/>
+      <c r="H75" s="14"/>
       <c r="I75" s="7" t="s">
         <v>318</v>
       </c>
       <c r="J75" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="K75" s="15"/>
+      <c r="K75" s="14"/>
       <c r="L75" s="7" t="s">
         <v>294</v>
       </c>
@@ -4360,338 +4391,338 @@
         <v>327</v>
       </c>
       <c r="P75" s="7"/>
-      <c r="Q75" s="15"/>
+      <c r="Q75" s="14"/>
       <c r="R75" s="7" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="76" spans="1:18" ht="82.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="19"/>
+    <row r="76" spans="1:18" s="33" customFormat="1" ht="82.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="28"/>
       <c r="B76" s="18"/>
-      <c r="C76" s="18" t="s">
+      <c r="C76" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="D76" s="20" t="s">
+      <c r="D76" s="38" t="s">
         <v>83</v>
       </c>
-      <c r="E76" s="16" t="s">
+      <c r="E76" s="39" t="s">
         <v>368</v>
       </c>
-      <c r="F76" s="16" t="s">
+      <c r="F76" s="39" t="s">
         <v>103</v>
       </c>
-      <c r="G76" s="15" t="s">
+      <c r="G76" s="31" t="s">
         <v>299</v>
       </c>
-      <c r="H76" s="15" t="s">
+      <c r="H76" s="31" t="s">
         <v>328</v>
       </c>
-      <c r="I76" s="15" t="s">
+      <c r="I76" s="31" t="s">
         <v>330</v>
       </c>
-      <c r="J76" s="15" t="s">
+      <c r="J76" s="31" t="s">
         <v>331</v>
       </c>
-      <c r="K76" s="15" t="s">
+      <c r="K76" s="31" t="s">
         <v>329</v>
       </c>
-      <c r="L76" s="17" t="s">
+      <c r="L76" s="30" t="s">
         <v>332</v>
       </c>
-      <c r="M76" s="17" t="s">
+      <c r="M76" s="30" t="s">
         <v>312</v>
       </c>
-      <c r="N76" s="7" t="s">
+      <c r="N76" s="32" t="s">
         <v>102</v>
       </c>
-      <c r="O76" s="7" t="s">
+      <c r="O76" s="32" t="s">
         <v>333</v>
       </c>
-      <c r="P76" s="7" t="s">
+      <c r="P76" s="32" t="s">
         <v>380</v>
       </c>
-      <c r="Q76" s="7" t="s">
+      <c r="Q76" s="32" t="s">
         <v>365</v>
       </c>
-      <c r="R76" s="7" t="s">
+      <c r="R76" s="32" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="77" spans="1:18" ht="63" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="19"/>
+    <row r="77" spans="1:18" s="33" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="28"/>
       <c r="B77" s="18"/>
-      <c r="C77" s="18"/>
-      <c r="D77" s="20"/>
-      <c r="E77" s="16"/>
-      <c r="F77" s="16"/>
-      <c r="G77" s="15"/>
-      <c r="H77" s="15"/>
-      <c r="I77" s="15"/>
-      <c r="J77" s="15"/>
-      <c r="K77" s="15"/>
-      <c r="L77" s="17"/>
-      <c r="M77" s="17"/>
-      <c r="N77" s="7" t="s">
+      <c r="C77" s="37"/>
+      <c r="D77" s="38"/>
+      <c r="E77" s="39"/>
+      <c r="F77" s="39"/>
+      <c r="G77" s="31"/>
+      <c r="H77" s="31"/>
+      <c r="I77" s="31"/>
+      <c r="J77" s="31"/>
+      <c r="K77" s="31"/>
+      <c r="L77" s="30"/>
+      <c r="M77" s="30"/>
+      <c r="N77" s="32" t="s">
         <v>86</v>
       </c>
-      <c r="O77" s="7" t="s">
+      <c r="O77" s="32" t="s">
         <v>334</v>
       </c>
-      <c r="P77" s="7"/>
-      <c r="Q77" s="7" t="s">
+      <c r="P77" s="32"/>
+      <c r="Q77" s="32" t="s">
         <v>364</v>
       </c>
-      <c r="R77" s="7" t="s">
+      <c r="R77" s="32" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="78" spans="1:18" ht="93.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="19"/>
+    <row r="78" spans="1:18" s="33" customFormat="1" ht="93.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="28"/>
       <c r="B78" s="18"/>
-      <c r="C78" s="18"/>
-      <c r="D78" s="20"/>
-      <c r="E78" s="16"/>
-      <c r="F78" s="16"/>
-      <c r="G78" s="9" t="s">
+      <c r="C78" s="37"/>
+      <c r="D78" s="38"/>
+      <c r="E78" s="39"/>
+      <c r="F78" s="39"/>
+      <c r="G78" s="40" t="s">
         <v>300</v>
       </c>
-      <c r="H78" s="7" t="s">
+      <c r="H78" s="32" t="s">
         <v>335</v>
       </c>
-      <c r="I78" s="7" t="s">
+      <c r="I78" s="32" t="s">
         <v>104</v>
       </c>
-      <c r="J78" s="9" t="s">
+      <c r="J78" s="40" t="s">
         <v>350</v>
       </c>
-      <c r="K78" s="9" t="s">
+      <c r="K78" s="40" t="s">
         <v>336</v>
       </c>
-      <c r="L78" s="8" t="s">
+      <c r="L78" s="36" t="s">
         <v>337</v>
       </c>
-      <c r="M78" s="7" t="s">
+      <c r="M78" s="32" t="s">
         <v>312</v>
       </c>
-      <c r="N78" s="7" t="s">
+      <c r="N78" s="32" t="s">
         <v>301</v>
       </c>
-      <c r="O78" s="7" t="s">
+      <c r="O78" s="32" t="s">
         <v>356</v>
       </c>
-      <c r="P78" s="7"/>
-      <c r="Q78" s="7" t="s">
+      <c r="P78" s="32"/>
+      <c r="Q78" s="32" t="s">
         <v>363</v>
       </c>
-      <c r="R78" s="7" t="s">
+      <c r="R78" s="32" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="79" spans="1:18" ht="71.25" x14ac:dyDescent="0.3">
-      <c r="A79" s="19"/>
+    <row r="79" spans="1:18" s="33" customFormat="1" ht="71.25" x14ac:dyDescent="0.3">
+      <c r="A79" s="28"/>
       <c r="B79" s="18"/>
-      <c r="C79" s="18"/>
-      <c r="D79" s="20"/>
-      <c r="E79" s="16" t="s">
+      <c r="C79" s="37"/>
+      <c r="D79" s="38"/>
+      <c r="E79" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="F79" s="16" t="s">
+      <c r="F79" s="39" t="s">
         <v>339</v>
       </c>
-      <c r="G79" s="15" t="s">
+      <c r="G79" s="31" t="s">
         <v>342</v>
       </c>
-      <c r="H79" s="15" t="s">
+      <c r="H79" s="31" t="s">
         <v>340</v>
       </c>
-      <c r="I79" s="15" t="s">
+      <c r="I79" s="31" t="s">
         <v>330</v>
       </c>
-      <c r="J79" s="15" t="s">
+      <c r="J79" s="31" t="s">
         <v>351</v>
       </c>
-      <c r="K79" s="15" t="s">
+      <c r="K79" s="31" t="s">
         <v>338</v>
       </c>
-      <c r="L79" s="17" t="s">
+      <c r="L79" s="30" t="s">
         <v>337</v>
       </c>
-      <c r="M79" s="17" t="s">
+      <c r="M79" s="30" t="s">
         <v>312</v>
       </c>
-      <c r="N79" s="7" t="s">
+      <c r="N79" s="32" t="s">
         <v>341</v>
       </c>
-      <c r="O79" s="7" t="s">
+      <c r="O79" s="32" t="s">
         <v>357</v>
       </c>
-      <c r="P79" s="7" t="s">
+      <c r="P79" s="32" t="s">
         <v>353</v>
       </c>
-      <c r="Q79" s="7" t="s">
+      <c r="Q79" s="32" t="s">
         <v>366</v>
       </c>
-      <c r="R79" s="7" t="s">
+      <c r="R79" s="32" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="80" spans="1:18" ht="99.75" x14ac:dyDescent="0.3">
-      <c r="A80" s="19"/>
+    <row r="80" spans="1:18" s="33" customFormat="1" ht="99.75" x14ac:dyDescent="0.3">
+      <c r="A80" s="28"/>
       <c r="B80" s="18"/>
-      <c r="C80" s="18"/>
-      <c r="D80" s="20"/>
-      <c r="E80" s="16"/>
-      <c r="F80" s="16"/>
-      <c r="G80" s="15"/>
-      <c r="H80" s="15"/>
-      <c r="I80" s="15"/>
-      <c r="J80" s="15"/>
-      <c r="K80" s="15"/>
-      <c r="L80" s="17"/>
-      <c r="M80" s="17"/>
-      <c r="N80" s="7" t="s">
+      <c r="C80" s="37"/>
+      <c r="D80" s="38"/>
+      <c r="E80" s="39"/>
+      <c r="F80" s="39"/>
+      <c r="G80" s="31"/>
+      <c r="H80" s="31"/>
+      <c r="I80" s="31"/>
+      <c r="J80" s="31"/>
+      <c r="K80" s="31"/>
+      <c r="L80" s="30"/>
+      <c r="M80" s="30"/>
+      <c r="N80" s="32" t="s">
         <v>345</v>
       </c>
-      <c r="O80" s="7" t="s">
+      <c r="O80" s="32" t="s">
         <v>358</v>
       </c>
-      <c r="P80" s="7" t="s">
+      <c r="P80" s="32" t="s">
         <v>355</v>
       </c>
-      <c r="Q80" s="7" t="s">
+      <c r="Q80" s="32" t="s">
         <v>367</v>
       </c>
-      <c r="R80" s="7" t="s">
+      <c r="R80" s="32" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="81" spans="1:18" ht="85.5" x14ac:dyDescent="0.3">
-      <c r="A81" s="19"/>
+    <row r="81" spans="1:18" s="33" customFormat="1" ht="85.5" x14ac:dyDescent="0.3">
+      <c r="A81" s="28"/>
       <c r="B81" s="18"/>
-      <c r="C81" s="18"/>
-      <c r="D81" s="20"/>
-      <c r="E81" s="16"/>
-      <c r="F81" s="16"/>
-      <c r="G81" s="15"/>
-      <c r="H81" s="15"/>
-      <c r="I81" s="15"/>
-      <c r="J81" s="15"/>
-      <c r="K81" s="15"/>
-      <c r="L81" s="17"/>
-      <c r="M81" s="17"/>
-      <c r="N81" s="7" t="s">
+      <c r="C81" s="37"/>
+      <c r="D81" s="38"/>
+      <c r="E81" s="39"/>
+      <c r="F81" s="39"/>
+      <c r="G81" s="31"/>
+      <c r="H81" s="31"/>
+      <c r="I81" s="31"/>
+      <c r="J81" s="31"/>
+      <c r="K81" s="31"/>
+      <c r="L81" s="30"/>
+      <c r="M81" s="30"/>
+      <c r="N81" s="32" t="s">
         <v>346</v>
       </c>
-      <c r="O81" s="7" t="s">
+      <c r="O81" s="32" t="s">
         <v>360</v>
       </c>
-      <c r="P81" s="7" t="s">
+      <c r="P81" s="32" t="s">
         <v>354</v>
       </c>
-      <c r="Q81" s="7" t="s">
+      <c r="Q81" s="32" t="s">
         <v>367</v>
       </c>
-      <c r="R81" s="7" t="s">
+      <c r="R81" s="32" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="82" spans="1:18" ht="71.25" x14ac:dyDescent="0.3">
-      <c r="A82" s="19"/>
+    <row r="82" spans="1:18" s="33" customFormat="1" ht="71.25" x14ac:dyDescent="0.3">
+      <c r="A82" s="28"/>
       <c r="B82" s="18"/>
-      <c r="C82" s="18"/>
-      <c r="D82" s="20"/>
-      <c r="E82" s="16"/>
-      <c r="F82" s="16"/>
-      <c r="G82" s="15" t="s">
+      <c r="C82" s="37"/>
+      <c r="D82" s="38"/>
+      <c r="E82" s="39"/>
+      <c r="F82" s="39"/>
+      <c r="G82" s="31" t="s">
         <v>343</v>
       </c>
-      <c r="H82" s="15" t="s">
+      <c r="H82" s="31" t="s">
         <v>340</v>
       </c>
-      <c r="I82" s="15" t="s">
+      <c r="I82" s="31" t="s">
         <v>330</v>
       </c>
-      <c r="J82" s="15" t="s">
+      <c r="J82" s="31" t="s">
         <v>352</v>
       </c>
-      <c r="K82" s="15" t="s">
+      <c r="K82" s="31" t="s">
         <v>344</v>
       </c>
-      <c r="L82" s="17"/>
-      <c r="M82" s="17"/>
-      <c r="N82" s="7" t="s">
+      <c r="L82" s="30"/>
+      <c r="M82" s="30"/>
+      <c r="N82" s="32" t="s">
         <v>347</v>
       </c>
-      <c r="O82" s="7" t="s">
+      <c r="O82" s="32" t="s">
         <v>359</v>
       </c>
-      <c r="P82" s="7" t="s">
+      <c r="P82" s="32" t="s">
         <v>353</v>
       </c>
-      <c r="Q82" s="7" t="s">
+      <c r="Q82" s="32" t="s">
         <v>366</v>
       </c>
-      <c r="R82" s="7" t="s">
+      <c r="R82" s="32" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="83" spans="1:18" ht="99.75" x14ac:dyDescent="0.3">
-      <c r="A83" s="19"/>
+    <row r="83" spans="1:18" s="33" customFormat="1" ht="99.75" x14ac:dyDescent="0.3">
+      <c r="A83" s="28"/>
       <c r="B83" s="18"/>
-      <c r="C83" s="18"/>
-      <c r="D83" s="20"/>
-      <c r="E83" s="16"/>
-      <c r="F83" s="16"/>
-      <c r="G83" s="15"/>
-      <c r="H83" s="15"/>
-      <c r="I83" s="15"/>
-      <c r="J83" s="15"/>
-      <c r="K83" s="15"/>
-      <c r="L83" s="17"/>
-      <c r="M83" s="17"/>
-      <c r="N83" s="7" t="s">
+      <c r="C83" s="37"/>
+      <c r="D83" s="38"/>
+      <c r="E83" s="39"/>
+      <c r="F83" s="39"/>
+      <c r="G83" s="31"/>
+      <c r="H83" s="31"/>
+      <c r="I83" s="31"/>
+      <c r="J83" s="31"/>
+      <c r="K83" s="31"/>
+      <c r="L83" s="30"/>
+      <c r="M83" s="30"/>
+      <c r="N83" s="32" t="s">
         <v>348</v>
       </c>
-      <c r="O83" s="7" t="s">
+      <c r="O83" s="32" t="s">
         <v>358</v>
       </c>
-      <c r="P83" s="7" t="s">
+      <c r="P83" s="32" t="s">
         <v>355</v>
       </c>
-      <c r="Q83" s="7" t="s">
+      <c r="Q83" s="32" t="s">
         <v>367</v>
       </c>
-      <c r="R83" s="7" t="s">
+      <c r="R83" s="32" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="84" spans="1:18" ht="85.5" x14ac:dyDescent="0.3">
-      <c r="A84" s="19"/>
+    <row r="84" spans="1:18" s="33" customFormat="1" ht="85.5" x14ac:dyDescent="0.3">
+      <c r="A84" s="28"/>
       <c r="B84" s="18"/>
-      <c r="C84" s="18"/>
-      <c r="D84" s="20"/>
-      <c r="E84" s="16"/>
-      <c r="F84" s="16"/>
-      <c r="G84" s="15"/>
-      <c r="H84" s="15"/>
-      <c r="I84" s="15"/>
-      <c r="J84" s="15"/>
-      <c r="K84" s="15"/>
-      <c r="L84" s="17"/>
-      <c r="M84" s="17"/>
-      <c r="N84" s="7" t="s">
+      <c r="C84" s="37"/>
+      <c r="D84" s="38"/>
+      <c r="E84" s="39"/>
+      <c r="F84" s="39"/>
+      <c r="G84" s="31"/>
+      <c r="H84" s="31"/>
+      <c r="I84" s="31"/>
+      <c r="J84" s="31"/>
+      <c r="K84" s="31"/>
+      <c r="L84" s="30"/>
+      <c r="M84" s="30"/>
+      <c r="N84" s="32" t="s">
         <v>349</v>
       </c>
-      <c r="O84" s="7" t="s">
+      <c r="O84" s="32" t="s">
         <v>360</v>
       </c>
-      <c r="P84" s="7" t="s">
+      <c r="P84" s="32" t="s">
         <v>354</v>
       </c>
-      <c r="Q84" s="7" t="s">
+      <c r="Q84" s="32" t="s">
         <v>367</v>
       </c>
-      <c r="R84" s="7" t="s">
+      <c r="R84" s="32" t="s">
         <v>379</v>
       </c>
     </row>
@@ -4712,42 +4743,72 @@
       <c r="F87" s="3"/>
     </row>
     <row r="90" spans="1:18" ht="57" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E90" s="31"/>
-      <c r="F90" s="30"/>
-      <c r="G90" s="29"/>
+      <c r="E90" s="17"/>
+      <c r="F90" s="16"/>
+      <c r="G90" s="15"/>
     </row>
     <row r="91" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="E91" s="31"/>
-      <c r="F91" s="30"/>
-      <c r="G91" s="29"/>
+      <c r="E91" s="17"/>
+      <c r="F91" s="16"/>
+      <c r="G91" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="96">
-    <mergeCell ref="R71:R74"/>
-    <mergeCell ref="G90:G91"/>
-    <mergeCell ref="F90:F91"/>
-    <mergeCell ref="E90:E91"/>
-    <mergeCell ref="E70:E75"/>
-    <mergeCell ref="Q71:Q75"/>
-    <mergeCell ref="M79:M84"/>
-    <mergeCell ref="L79:L84"/>
-    <mergeCell ref="L76:L77"/>
-    <mergeCell ref="M76:M77"/>
-    <mergeCell ref="G48:G63"/>
-    <mergeCell ref="K76:K77"/>
-    <mergeCell ref="J76:J77"/>
-    <mergeCell ref="I76:I77"/>
-    <mergeCell ref="J82:J84"/>
-    <mergeCell ref="G64:G68"/>
-    <mergeCell ref="G82:G84"/>
-    <mergeCell ref="K82:K84"/>
-    <mergeCell ref="I82:I84"/>
-    <mergeCell ref="G79:G81"/>
-    <mergeCell ref="H79:H81"/>
-    <mergeCell ref="I79:I81"/>
-    <mergeCell ref="J79:J81"/>
-    <mergeCell ref="K79:K81"/>
-    <mergeCell ref="H48:H63"/>
+    <mergeCell ref="O56:O60"/>
+    <mergeCell ref="E79:E84"/>
+    <mergeCell ref="G76:G77"/>
+    <mergeCell ref="G71:G75"/>
+    <mergeCell ref="H71:H75"/>
+    <mergeCell ref="K71:K75"/>
+    <mergeCell ref="H76:H77"/>
+    <mergeCell ref="L56:L60"/>
+    <mergeCell ref="M56:M60"/>
+    <mergeCell ref="H64:H68"/>
+    <mergeCell ref="I64:I68"/>
+    <mergeCell ref="J64:J68"/>
+    <mergeCell ref="K64:K68"/>
+    <mergeCell ref="I48:I63"/>
+    <mergeCell ref="O49:O55"/>
+    <mergeCell ref="H82:H84"/>
+    <mergeCell ref="O13:O21"/>
+    <mergeCell ref="O22:O24"/>
+    <mergeCell ref="N42:N47"/>
+    <mergeCell ref="O42:O47"/>
+    <mergeCell ref="G13:G47"/>
+    <mergeCell ref="H13:H47"/>
+    <mergeCell ref="O25:O38"/>
+    <mergeCell ref="O39:O41"/>
+    <mergeCell ref="K42:K47"/>
+    <mergeCell ref="I13:I47"/>
+    <mergeCell ref="B5:B84"/>
+    <mergeCell ref="A5:A84"/>
+    <mergeCell ref="F76:F78"/>
+    <mergeCell ref="E76:E78"/>
+    <mergeCell ref="C76:C84"/>
+    <mergeCell ref="D76:D84"/>
+    <mergeCell ref="E5:E12"/>
+    <mergeCell ref="F70:F75"/>
+    <mergeCell ref="F13:F69"/>
+    <mergeCell ref="C13:C75"/>
+    <mergeCell ref="D13:D75"/>
+    <mergeCell ref="E13:E69"/>
+    <mergeCell ref="F79:F84"/>
+    <mergeCell ref="J5:J12"/>
+    <mergeCell ref="K39:K41"/>
+    <mergeCell ref="N22:N24"/>
+    <mergeCell ref="N39:N41"/>
+    <mergeCell ref="N49:N55"/>
+    <mergeCell ref="N25:N38"/>
+    <mergeCell ref="K13:K24"/>
+    <mergeCell ref="M13:M21"/>
+    <mergeCell ref="N13:N21"/>
+    <mergeCell ref="M49:M55"/>
+    <mergeCell ref="J48:J63"/>
+    <mergeCell ref="K48:K63"/>
+    <mergeCell ref="L49:L55"/>
+    <mergeCell ref="N56:N60"/>
+    <mergeCell ref="K25:K38"/>
+    <mergeCell ref="J13:J47"/>
     <mergeCell ref="A2:R2"/>
     <mergeCell ref="F5:F12"/>
     <mergeCell ref="A3:H3"/>
@@ -4764,61 +4825,31 @@
     <mergeCell ref="H5:H12"/>
     <mergeCell ref="C5:C12"/>
     <mergeCell ref="D5:D12"/>
-    <mergeCell ref="J5:J12"/>
-    <mergeCell ref="K39:K41"/>
-    <mergeCell ref="N22:N24"/>
-    <mergeCell ref="N39:N41"/>
-    <mergeCell ref="N49:N55"/>
-    <mergeCell ref="N25:N38"/>
-    <mergeCell ref="K13:K24"/>
-    <mergeCell ref="M13:M21"/>
-    <mergeCell ref="N13:N21"/>
-    <mergeCell ref="M49:M55"/>
-    <mergeCell ref="J48:J63"/>
-    <mergeCell ref="K48:K63"/>
-    <mergeCell ref="L49:L55"/>
-    <mergeCell ref="N56:N60"/>
-    <mergeCell ref="K25:K38"/>
-    <mergeCell ref="J13:J47"/>
-    <mergeCell ref="B5:B84"/>
-    <mergeCell ref="A5:A84"/>
-    <mergeCell ref="F76:F78"/>
-    <mergeCell ref="E76:E78"/>
-    <mergeCell ref="C76:C84"/>
-    <mergeCell ref="D76:D84"/>
-    <mergeCell ref="E5:E12"/>
-    <mergeCell ref="F70:F75"/>
-    <mergeCell ref="F13:F69"/>
-    <mergeCell ref="C13:C75"/>
-    <mergeCell ref="D13:D75"/>
-    <mergeCell ref="E13:E69"/>
-    <mergeCell ref="F79:F84"/>
-    <mergeCell ref="O13:O21"/>
-    <mergeCell ref="O22:O24"/>
-    <mergeCell ref="N42:N47"/>
-    <mergeCell ref="O42:O47"/>
-    <mergeCell ref="G13:G47"/>
-    <mergeCell ref="H13:H47"/>
-    <mergeCell ref="O25:O38"/>
-    <mergeCell ref="O39:O41"/>
-    <mergeCell ref="K42:K47"/>
-    <mergeCell ref="I13:I47"/>
-    <mergeCell ref="O56:O60"/>
-    <mergeCell ref="E79:E84"/>
-    <mergeCell ref="G76:G77"/>
-    <mergeCell ref="G71:G75"/>
-    <mergeCell ref="H71:H75"/>
-    <mergeCell ref="K71:K75"/>
-    <mergeCell ref="H76:H77"/>
-    <mergeCell ref="L56:L60"/>
-    <mergeCell ref="M56:M60"/>
-    <mergeCell ref="H64:H68"/>
-    <mergeCell ref="I64:I68"/>
-    <mergeCell ref="J64:J68"/>
-    <mergeCell ref="K64:K68"/>
-    <mergeCell ref="I48:I63"/>
-    <mergeCell ref="O49:O55"/>
-    <mergeCell ref="H82:H84"/>
+    <mergeCell ref="G48:G63"/>
+    <mergeCell ref="K76:K77"/>
+    <mergeCell ref="J76:J77"/>
+    <mergeCell ref="I76:I77"/>
+    <mergeCell ref="J82:J84"/>
+    <mergeCell ref="G64:G68"/>
+    <mergeCell ref="G82:G84"/>
+    <mergeCell ref="K82:K84"/>
+    <mergeCell ref="I82:I84"/>
+    <mergeCell ref="G79:G81"/>
+    <mergeCell ref="H79:H81"/>
+    <mergeCell ref="I79:I81"/>
+    <mergeCell ref="J79:J81"/>
+    <mergeCell ref="K79:K81"/>
+    <mergeCell ref="H48:H63"/>
+    <mergeCell ref="R71:R74"/>
+    <mergeCell ref="G90:G91"/>
+    <mergeCell ref="F90:F91"/>
+    <mergeCell ref="E90:E91"/>
+    <mergeCell ref="E70:E75"/>
+    <mergeCell ref="Q71:Q75"/>
+    <mergeCell ref="M79:M84"/>
+    <mergeCell ref="L79:L84"/>
+    <mergeCell ref="L76:L77"/>
+    <mergeCell ref="M76:M77"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
